--- a/Chetan/Test Template Document Corp.xlsx
+++ b/Chetan/Test Template Document Corp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="5468" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8633" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Project Profile" sheetId="6" r:id="rId1"/>
@@ -146,12 +146,84 @@
         </r>
       </text>
     </comment>
+    <comment ref="C41" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>JiDi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+To verify added employee with status enabled are able to login to portal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C42" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>JiDi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+To verify added employee with status disabled and then enabling under employee list then login should work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E42" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>JiDi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Complete steps</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="229">
   <si>
     <t>Project ID</t>
   </si>
@@ -846,6 +918,249 @@
   <si>
     <t>Data: 
 New password: Bala@1234</t>
+  </si>
+  <si>
+    <t>SC_OH_9</t>
+  </si>
+  <si>
+    <t>To verify UI component for Add Employee  section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to the url
+2.Enter the Admin username 
+3.Enter the password
+4. Click on login
+5. Mouse over on PIM 
+5. Click on add employee </t>
+  </si>
+  <si>
+    <t>Data : 
+Add username : Admin
+password : admin123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Add Employee header should be displayed
+2.Logo should be displayed
+3.Textbox for firstname,middlename,lastname employee id,should be present
+4.Choose file option image upload option should be provide
+5.check box for create login button
+5.Save button should be Displayed
+6.Label for firstname,middlename,lastname,empphoto,employeeId,checkbox,username,password,conferm password should be Displayed properly
+</t>
+  </si>
+  <si>
+    <t>1.Add Employee header should be displayed
+2.Logo should be displayed
+3.Textbox for firstname,middlename,lastname employee id,should be present
+4.Choose file option image upload option should be provide
+5.check box for create login button
+5.Save button should be Displayed
+6.Label for firstname,middlename,lastname,empphoto,employeeId,checkbox,username,password,conferm password should be Displayed properly
+7. Dropdown for status with option as Enabled and Disabled should be displayed
+8.label for photograph is displayed as "Accepts jpg, .png, .gif up to 1MB. Recommended dimensions: 200px X 200px"
+9.Label for Password format displayed as "For a strong password, please use a hard to guess combination of text with upper and lower case characters, symbols and numbers"
+10. mandatory field label dispalyed as "* Required field"</t>
+  </si>
+  <si>
+    <t>1.Navigate to the url
+2.Enter the Admin username 
+3.Enter the password
+4. Click on login
+5. Mouse over on PIM 
+5. Click on add employee 
+6. check - create login details</t>
+  </si>
+  <si>
+    <t>1.Navigate to URL
+2.Enter the Admin Username
+3.Enter password
+4.Check  Login
+5.Mouse over on PIM
+6.Click on add employee
+7.Enter Firstname
+8.Enter Middle name 
+9.Enter last name
+10.Enter Employee ID
+11.Upload the employee ID
+12.click on save button</t>
+  </si>
+  <si>
+    <t>Data : 
+username : Admin
+password : Admin@123
+Firstname : john
+Middle name : robert
+Last name : Anderson
+Employee ID : 1234
+Image : C:\Users\P1345349\Pictures\Screenshots</t>
+  </si>
+  <si>
+    <t>1.Admin should be see message as "Employee record has been addes to employee list"
+2.The added employee details should be present in the employee
+3. Database should contains the added employee details</t>
+  </si>
+  <si>
+    <t>TC_OH_38</t>
+  </si>
+  <si>
+    <t>1.Navigate to URL
+2.Enter the Admin Username
+3.Enter password
+4.Check  Login
+5.Mouse over on PIM
+6.Click on add employee
+7.Enter Firstname
+8.Enter Middle name 
+9.Enter last name
+10.Enter Employee ID
+11.Upload the employee ID
+12. Enter the Username 
+13.Enter the password
+14.Enter the conferm password
+15.select the Enabled from Dropdown
+12.click on save button</t>
+  </si>
+  <si>
+    <t>Data : 
+username : Admin
+password : Admin@123
+Firstname : john
+Middle name : robert
+Last name : Anderson
+Employee ID : 1234
+Image : C:\Users\P1345349\Pictures\Screenshots
+Username : john
+password : 12345
+conferm password : 12345
+Status : Enabled</t>
+  </si>
+  <si>
+    <t>TC_OH_39</t>
+  </si>
+  <si>
+    <t>To verify adding valid employee record  without providing the credentials</t>
+  </si>
+  <si>
+    <t>To verify adding valid employee record  with providing the credentials and status as enabled</t>
+  </si>
+  <si>
+    <t>1.Navigate to URL
+2.Enter the Admin Username
+3.Enter password
+4.Check  Login
+5.Mouse over on PIM
+6.Click on add employee
+7.Enter Firstname
+8.Enter Middle name 
+9.Enter last name
+10.Enter Employee ID
+11.Upload the employee ID
+12. Enter the Username 
+13.Enter the password
+14.Enter the conferm password
+15.select the Disabled from Dropdown
+12.click on save button</t>
+  </si>
+  <si>
+    <t>Data : 
+username : Admin
+password : Admin@123
+Firstname : john
+Middle name : robert
+Last name : Anderson
+Employee ID : 1234
+Image : C:\Users\P1345349\Pictures\Screenshots
+Username : john
+password : 12345
+conferm password : 12345
+Status : Disabled</t>
+  </si>
+  <si>
+    <t>TC_OH_40</t>
+  </si>
+  <si>
+    <t>To verify adding valid employee record  with providing the credentials and status as Disabled</t>
+  </si>
+  <si>
+    <t>TC_OH_41</t>
+  </si>
+  <si>
+    <t>To verify add employeee credential Enabled</t>
+  </si>
+  <si>
+    <t>TC_OH_42</t>
+  </si>
+  <si>
+    <t>To verify add employeee credential Disabled</t>
+  </si>
+  <si>
+    <t>Data : 
+username : Admin
+password : Admin@123
+Firstname : john
+Middle name : robert
+Last name : Anderson
+Employee ID : 1234
+Image : C:\Users\P1345349\Pictures\Screenshots
+Username : john
+password : 12345
+conferm password : 12345
+Status : Enabled
+Login:
+Username : john
+password : 12345</t>
+  </si>
+  <si>
+    <t>1.Navigate to URL
+2.Enter the Admin Username
+3.Enter password
+4.Check  Login
+5.Mouse over on PIM
+6.Click on add employee
+7.Enter Firstname
+8.Enter Middle name 
+9.Enter last name
+10.Enter Employee ID
+11.Upload the employee ID
+12. Enter the Username 
+13.Enter the password
+14.Enter the conferm password
+15.select the ststus Enabled
+12.click on save button
+13. Logout as admin
+14. Enter username as employee
+15. Enter Password
+16. Click on login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee should be login page. 
+Employee should be navigated to the dashboard screen
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to URL
+2.Enter the Admin Username
+3.Enter password
+4.Check  Login
+5.Mouse over on PIM
+6.Click on add employee
+7.Enter Firstname
+8.Enter Middle name 
+9.Enter last name
+10.Enter Employee ID
+11.Upload the employee ID
+12. Enter the Username 
+13.Enter the password
+14.Enter the conferm password
+15.select the ststus Disabled
+12.click on save button
+16. Goto employee list 
+17. Change the status as Enabled
+18.click on save button
+</t>
+  </si>
+  <si>
+    <t>To veridy add employee with status disabled are not allowed to login</t>
   </si>
 </sst>
 </file>
@@ -964,7 +1279,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1004,6 +1319,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,7 +1483,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1270,6 +1591,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1293,24 +1635,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1790,11 +2114,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4" s="4" customFormat="1" ht="22.5">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
     </row>
     <row r="5" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="C5" s="6"/>
@@ -1803,28 +2127,28 @@
       <c r="B7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="40"/>
+      <c r="D7" s="47"/>
     </row>
     <row r="8" spans="2:4" ht="17.25" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="40"/>
+      <c r="D8" s="47"/>
     </row>
     <row r="9" spans="2:4" ht="31.5" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="49"/>
     </row>
     <row r="10" spans="2:4" ht="17.25" customHeight="1">
       <c r="B10" s="9"/>
@@ -2083,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="12.75"/>
@@ -2094,7 +2418,7 @@
     <col min="3" max="3" width="35.3984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="56.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.46484375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.3984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="35.59765625" style="1" customWidth="1"/>
     <col min="8" max="9" width="26.1328125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="36" style="1"/>
@@ -2496,7 +2820,7 @@
         <v>44610</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="21" customFormat="1" ht="63.75">
+    <row r="18" spans="1:10" s="21" customFormat="1" ht="51">
       <c r="A18" s="33" t="s">
         <v>104</v>
       </c>
@@ -2544,7 +2868,7 @@
         <v>44612</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="21" customFormat="1" ht="63.75">
+    <row r="20" spans="1:10" s="21" customFormat="1" ht="51">
       <c r="A20" s="33" t="s">
         <v>142</v>
       </c>
@@ -2815,23 +3139,23 @@
       </c>
     </row>
     <row r="32" spans="1:10" s="21" customFormat="1" ht="229.5">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="F32" s="48"/>
-      <c r="G32" s="47" t="s">
+      <c r="F32" s="40"/>
+      <c r="G32" s="39" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2858,50 +3182,215 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="51" customFormat="1" ht="125.75" customHeight="1">
-      <c r="A34" s="49" t="s">
+    <row r="34" spans="1:7" s="43" customFormat="1" ht="125.85" customHeight="1">
+      <c r="A34" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="51" t="s">
+      <c r="E34" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="F34" s="51" t="s">
+      <c r="F34" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="43" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="21" customFormat="1">
+    <row r="35" spans="1:7" s="21" customFormat="1" ht="339.75" customHeight="1">
+      <c r="A35" s="41" t="s">
+        <v>200</v>
+      </c>
       <c r="B35" s="35" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" s="21" customFormat="1">
+      <c r="C35" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="21" customFormat="1" ht="357">
+      <c r="A36" s="44" t="s">
+        <v>200</v>
+      </c>
       <c r="B36" s="35" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" s="21" customFormat="1">
+      <c r="C36" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="21" customFormat="1" ht="153">
+      <c r="A37" s="44" t="s">
+        <v>200</v>
+      </c>
       <c r="B37" s="35" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" s="21" customFormat="1"/>
-    <row r="39" spans="1:7" s="21" customFormat="1"/>
-    <row r="40" spans="1:7" s="21" customFormat="1"/>
-    <row r="41" spans="1:7" s="21" customFormat="1"/>
-    <row r="42" spans="1:7" s="21" customFormat="1"/>
-    <row r="43" spans="1:7" s="21" customFormat="1"/>
+      <c r="C37" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="21" customFormat="1" ht="204">
+      <c r="A38" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="21" customFormat="1" ht="204">
+      <c r="A39" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="21" customFormat="1" ht="204">
+      <c r="A40" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="21" customFormat="1" ht="255">
+      <c r="A41" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="21" customFormat="1" ht="255">
+      <c r="B42" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="21" customFormat="1" ht="25.5">
+      <c r="C43" s="21" t="s">
+        <v>228</v>
+      </c>
+    </row>
     <row r="44" spans="1:7" s="21" customFormat="1"/>
     <row r="45" spans="1:7" s="21" customFormat="1"/>
     <row r="46" spans="1:7" s="21" customFormat="1"/>
@@ -3270,6 +3759,13 @@
     <hyperlink ref="A32" location="RTM!B14" display="SC_OH_8"/>
     <hyperlink ref="A33" location="RTM!B14" display="SC_OH_8"/>
     <hyperlink ref="A34" location="RTM!B14" display="SC_OH_8"/>
+    <hyperlink ref="A35" location="RTM!B14" display="SC_OH_8"/>
+    <hyperlink ref="A36" location="RTM!B14" display="SC_OH_8"/>
+    <hyperlink ref="A37" location="RTM!B14" display="SC_OH_8"/>
+    <hyperlink ref="A38" location="RTM!B14" display="SC_OH_8"/>
+    <hyperlink ref="A39" location="RTM!B14" display="SC_OH_8"/>
+    <hyperlink ref="A40" location="RTM!B14" display="SC_OH_8"/>
+    <hyperlink ref="A41" location="RTM!B14" display="SC_OH_8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3293,14 +3789,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.399999999999999" thickTop="1" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" thickTop="1" thickBot="1">
       <c r="A2" s="22"/>
@@ -3414,17 +3910,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
-    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
-    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
-    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3433,11 +3918,11 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046351F880B96AE4B9BB4815879ADEBDD" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="487f15db4e05f84fdb19aa3f548b93b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81372d4e-bcfc-4844-a57b-a09c5da71958" xmlns:ns3="952a6df7-b138-4f89-9bc4-e7a874ea3254" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09419ac551552483846d59652a820d17" ns2:_="" ns3:_="">
     <xsd:import namespace="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
@@ -3607,18 +4092,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
-    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
+    <Category xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Module Artifact</Category>
+    <FolderName xmlns="952a6df7-b138-4f89-9bc4-e7a874ea3254" xsi:nil="true"/>
+    <Material_x0020_Type xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">Extra Material</Material_x0020_Type>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3626,7 +4111,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
@@ -3634,7 +4119,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E28044-843A-4D7D-9F1F-711CA3C23377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3651,4 +4136,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
+    <ds:schemaRef ds:uri="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>